--- a/medicine/Enfance/Steve_Michiels/Steve_Michiels.xlsx
+++ b/medicine/Enfance/Steve_Michiels/Steve_Michiels.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Steve Michiels dit Steve, né le 23 février 1970 à Lokeren (province de Flandre-Orientale), est un dessinateur de presse, auteur de bande dessinée et illustrateur belge néerlandophone.
 </t>
@@ -511,15 +523,17 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Steve Michiels naît le 23 février 1970 à Lokeren[1].
-Il étudie les arts graphiques à l'Institut Saint-Luc de Bruxelles et successivement à l'Académie royale des beaux-arts de Gand[1]. Sa thèse portait sur le livre d'images Ha-A-Ai, Lief en Leed (Geknipt Papier, 1992), également publié en édition limitée et distribué dans les librairies spécialisées[1].
-Parmi ses influences graphiques figurent Peter van Straaten, Willy Vandersteen, Kamagurka, Saul Steinberg, René Magritte, Frans Masereel, Art Spiegelman, Charles Addams, Glen Baxter, Cheri Samba, Gary Larson, Matt Groening et les dessinateurs du The New Yorker[1].
-Steve Michiels débute en 1993 par des dessins politiques dans le quotidien De Morgen et publie ensuite dans De Standaard, Het Laatste Nieuws, Knack, Humo, TV Expres, Teek et Bonanza, aux Pays-Bas dans NRC Handelsblad, Het Parool, VPRO-gids et Vrij Nederland et en France dans Fluide glacial  à partir de 2004[2],[3]. Steve enseigne l’illustration à l'Institut Saint-Luc à Gand où il a eu pour élève Brecht Evens et Brecht Vandenbroucke[4]. Il publie plusieurs livres de littérature d'enfance et de jeunesse qu'il illustre ou écrit[3],[1]. Avec Baby Pop en Billy Boef, un livre pour enfants de l'actrice Pascale Platel édité chez Lannoo en 2002, il reçoit en 2003 le prix Boekenpluim[3]. En 2007, il reçoit le prix BeNe pour le meilleur dessin belgo-néerlandais, avec un dessin sur l’autocensure après la publication des fameux cartoons danois jugés anti-islamiques[3].
-En 2013, il publie un roman graphique Crépuscule civil dans la collection « Amphigouri » aux éditions bruxelloises Frémok qui est un pamphlet mettant en scène la petite bourgeoisie flamande où il mêle bagarre, beuveries, crises cardiaques, godemichets, policiers et faits divers[5].
-Il livre encore Cahier de vacances pour la plage, la révolution et les dîners mondains[6] pour la collection « Flore » chez le même éditeur en 2015.
-L'artiste expose ses œuvres à la galerie gothique du Musée des tapisseries d’Aix-en-Provence en 2015[4] puis à Paris la même année[7], à Jette en 2017[8], ainsi qu'à Lokeren en 2018[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Steve Michiels naît le 23 février 1970 à Lokeren.
+Il étudie les arts graphiques à l'Institut Saint-Luc de Bruxelles et successivement à l'Académie royale des beaux-arts de Gand. Sa thèse portait sur le livre d'images Ha-A-Ai, Lief en Leed (Geknipt Papier, 1992), également publié en édition limitée et distribué dans les librairies spécialisées.
+Parmi ses influences graphiques figurent Peter van Straaten, Willy Vandersteen, Kamagurka, Saul Steinberg, René Magritte, Frans Masereel, Art Spiegelman, Charles Addams, Glen Baxter, Cheri Samba, Gary Larson, Matt Groening et les dessinateurs du The New Yorker.
+Steve Michiels débute en 1993 par des dessins politiques dans le quotidien De Morgen et publie ensuite dans De Standaard, Het Laatste Nieuws, Knack, Humo, TV Expres, Teek et Bonanza, aux Pays-Bas dans NRC Handelsblad, Het Parool, VPRO-gids et Vrij Nederland et en France dans Fluide glacial  à partir de 2004,. Steve enseigne l’illustration à l'Institut Saint-Luc à Gand où il a eu pour élève Brecht Evens et Brecht Vandenbroucke. Il publie plusieurs livres de littérature d'enfance et de jeunesse qu'il illustre ou écrit,. Avec Baby Pop en Billy Boef, un livre pour enfants de l'actrice Pascale Platel édité chez Lannoo en 2002, il reçoit en 2003 le prix Boekenpluim. En 2007, il reçoit le prix BeNe pour le meilleur dessin belgo-néerlandais, avec un dessin sur l’autocensure après la publication des fameux cartoons danois jugés anti-islamiques.
+En 2013, il publie un roman graphique Crépuscule civil dans la collection « Amphigouri » aux éditions bruxelloises Frémok qui est un pamphlet mettant en scène la petite bourgeoisie flamande où il mêle bagarre, beuveries, crises cardiaques, godemichets, policiers et faits divers.
+Il livre encore Cahier de vacances pour la plage, la révolution et les dîners mondains pour la collection « Flore » chez le même éditeur en 2015.
+L'artiste expose ses œuvres à la galerie gothique du Musée des tapisseries d’Aix-en-Provence en 2015 puis à Paris la même année, à Jette en 2017, ainsi qu'à Lokeren en 2018.
 </t>
         </is>
       </c>
@@ -550,9 +564,14 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Albums de bande dessinée
-en français
-Crépuscule civil[9],[5], Frémok, coll. « Amphigouri », 5 septembre 2013Scénario et dessin : Steve Michiels - Couleurs : bichromie -  (ISBN 978-2-930204-68-0),Format à l'italienne.
+          <t>Albums de bande dessinée</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>en français
+Crépuscule civil Frémok, coll. « Amphigouri », 5 septembre 2013Scénario et dessin : Steve Michiels - Couleurs : bichromie -  (ISBN 978-2-930204-68-0),Format à l'italienne.
 Cahier de vacances pour la plage, la révolution et les dîners mondains, Frémok, coll. « Flore », Bruxelles, 11 juin 2015Scénario, dessin et couleurs : Steve Michiels -  (ISBN 978-2-930204-88-8)</t>
         </is>
       </c>
@@ -581,10 +600,12 @@
           <t>Prix et récompenses</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>2003 :  prix Boekenpluim (nl)[3] avec partagé avec Pascale Platel pour Baby Pop en Billy Boef ;
-2007 :  prix BeNe (nl)[3] du meilleur dessin politique pour un dessin sur l’autocensure après la publication des fameux cartoons danois jugés anti-islamiques.</t>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>2003 :  prix Boekenpluim (nl) avec partagé avec Pascale Platel pour Baby Pop en Billy Boef ;
+2007 :  prix BeNe (nl) du meilleur dessin politique pour un dessin sur l’autocensure après la publication des fameux cartoons danois jugés anti-islamiques.</t>
         </is>
       </c>
     </row>
